--- a/KPP_MS/KPP_MS/obj/Release/Package/PackageTmp/download/student_marks.xlsx
+++ b/KPP_MS/KPP_MS/obj/Release/Package/PackageTmp/download/student_marks.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03B4F4B-1CB3-4EF4-990F-5D81DC0D3BFB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="marks" sheetId="1" r:id="rId1"/>
@@ -20,35 +19,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Bil</t>
   </si>
   <si>
-    <t>Student_Mykad</t>
-  </si>
-  <si>
-    <t>Class_Name</t>
-  </si>
-  <si>
-    <t>Subject_Name</t>
-  </si>
-  <si>
-    <t>Exam_Name</t>
-  </si>
-  <si>
-    <t>Exam_Year</t>
-  </si>
-  <si>
     <t>Marks</t>
   </si>
   <si>
     <t>Grade</t>
   </si>
   <si>
-    <t>Student_Name</t>
-  </si>
-  <si>
     <t>ABDUL MUIZ ARIEF BIN RUSLI</t>
   </si>
   <si>
@@ -65,12 +46,54 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Student Mykad</t>
+  </si>
+  <si>
+    <t>Class Name</t>
+  </si>
+  <si>
+    <t>Subject Name</t>
+  </si>
+  <si>
+    <t>Exam Name</t>
+  </si>
+  <si>
+    <t>Exam Year</t>
+  </si>
+  <si>
+    <t>Student_Campus</t>
+  </si>
+  <si>
+    <t>Student_Stream</t>
+  </si>
+  <si>
+    <t>PGPN</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Pure Science (PS)</t>
+  </si>
+  <si>
+    <t>Digital Innovators Porgram (DIP)</t>
+  </si>
+  <si>
+    <t>Pusat GENIUS@Pintar Negara, UKM (PGPN)</t>
+  </si>
+  <si>
+    <t>Akademi Pintar Pendang (APP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,82 +413,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1">
         <v>2018</v>
       </c>
-      <c r="H2" s="1">
+      <c r="J2" s="1">
         <v>21</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
